--- a/Code/Results/Cases/Case_5_75/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_75/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8491577000568498</v>
+        <v>0.3605800351893436</v>
       </c>
       <c r="C2">
-        <v>0.1064624986043583</v>
+        <v>0.03088557933001823</v>
       </c>
       <c r="D2">
-        <v>0.130982718646564</v>
+        <v>0.1582768291396235</v>
       </c>
       <c r="E2">
-        <v>0.09916234305934069</v>
+        <v>0.1566086668042352</v>
       </c>
       <c r="F2">
-        <v>0.9142894626320555</v>
+        <v>1.732319223695484</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1064703413011401</v>
+        <v>0.1935279873024527</v>
       </c>
       <c r="K2">
-        <v>0.8610059644738044</v>
+        <v>0.3142421109734244</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.3060814921577588</v>
+        <v>0.2122778647614751</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.251084965200135</v>
+        <v>4.396756074374139</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.737477144986002</v>
+        <v>0.3283216481623867</v>
       </c>
       <c r="C3">
-        <v>0.09578042122011254</v>
+        <v>0.02738043922929023</v>
       </c>
       <c r="D3">
-        <v>0.1165763643676598</v>
+        <v>0.1550313151745257</v>
       </c>
       <c r="E3">
-        <v>0.09147267655585978</v>
+        <v>0.1554378733549875</v>
       </c>
       <c r="F3">
-        <v>0.8921348156890971</v>
+        <v>1.737500715248814</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1014837519116298</v>
+        <v>0.1934081094813109</v>
       </c>
       <c r="K3">
-        <v>0.7493738348170211</v>
+        <v>0.2810876666782747</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.2670804994962594</v>
+        <v>0.2020710694219332</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.231648563441382</v>
+        <v>4.41983796681879</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6690917088972128</v>
+        <v>0.3085938214295254</v>
       </c>
       <c r="C4">
-        <v>0.08921286975649423</v>
+        <v>0.02521660268811843</v>
       </c>
       <c r="D4">
-        <v>0.1078114225814488</v>
+        <v>0.1530991578740384</v>
       </c>
       <c r="E4">
-        <v>0.08685835383308316</v>
+        <v>0.154786353056064</v>
       </c>
       <c r="F4">
-        <v>0.880069308113768</v>
+        <v>1.741507268733137</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.09857566564726739</v>
+        <v>0.1934220207013482</v>
       </c>
       <c r="K4">
-        <v>0.6809309922008708</v>
+        <v>0.2607568303609611</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.2432773944165554</v>
+        <v>0.195887129392144</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.223837094502557</v>
+        <v>4.43613697541997</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6412598567076486</v>
+        <v>0.3005748792305099</v>
       </c>
       <c r="C5">
-        <v>0.08653354393682378</v>
+        <v>0.02433193968214198</v>
       </c>
       <c r="D5">
-        <v>0.1042583021690575</v>
+        <v>0.1523271114381117</v>
       </c>
       <c r="E5">
-        <v>0.08500343119870024</v>
+        <v>0.1545378302330285</v>
       </c>
       <c r="F5">
-        <v>0.8755228981811385</v>
+        <v>1.743347577505176</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.09742741205140248</v>
+        <v>0.193449718883457</v>
       </c>
       <c r="K5">
-        <v>0.6530545434370225</v>
+        <v>0.2524788782477003</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.2336090018865811</v>
+        <v>0.1933881755924034</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.221648775190161</v>
+        <v>4.443313832954047</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6366402431731046</v>
+        <v>0.2992445799039274</v>
       </c>
       <c r="C6">
-        <v>0.08608844054929676</v>
+        <v>0.02418486952095122</v>
       </c>
       <c r="D6">
-        <v>0.1036693911272977</v>
+        <v>0.1521998417023838</v>
       </c>
       <c r="E6">
-        <v>0.08469691757450803</v>
+        <v>0.1544975897796128</v>
       </c>
       <c r="F6">
-        <v>0.8747898804963938</v>
+        <v>1.743665702032821</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.09723891705229448</v>
+        <v>0.1934556493204056</v>
       </c>
       <c r="K6">
-        <v>0.6484262644370062</v>
+        <v>0.2511047686835752</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.2320053506272721</v>
+        <v>0.1929745024975134</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.221344315521904</v>
+        <v>4.444537853624993</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6687162283577948</v>
+        <v>0.3084855923437999</v>
       </c>
       <c r="C7">
-        <v>0.08917674858325597</v>
+        <v>0.02520468341437265</v>
       </c>
       <c r="D7">
-        <v>0.1077634304489123</v>
+        <v>0.1530886836295764</v>
       </c>
       <c r="E7">
-        <v>0.08683323656948261</v>
+        <v>0.1547829325965857</v>
       </c>
       <c r="F7">
-        <v>0.8800065148630978</v>
+        <v>1.741531247024788</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.09856003319230666</v>
+        <v>0.1934223050232546</v>
       </c>
       <c r="K7">
-        <v>0.6805549951437513</v>
+        <v>0.260645161934363</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.2431468811304285</v>
+        <v>0.1958533421725619</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.223803607330979</v>
+        <v>4.436231599172316</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8106044743180689</v>
+        <v>0.3494412181356097</v>
       </c>
       <c r="C8">
-        <v>0.1027806224735883</v>
+        <v>0.02967945817366058</v>
       </c>
       <c r="D8">
-        <v>0.1259976775766063</v>
+        <v>0.1571452475170787</v>
       </c>
       <c r="E8">
-        <v>0.09648777859258217</v>
+        <v>0.1561910222056433</v>
       </c>
       <c r="F8">
-        <v>0.9063213920408089</v>
+        <v>1.733934627502158</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1047179312533189</v>
+        <v>0.193468502326283</v>
       </c>
       <c r="K8">
-        <v>0.8224879546300485</v>
+        <v>0.3028053005196796</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.2926013005039394</v>
+        <v>0.2087414135881502</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.243501883680381</v>
+        <v>4.404273395979743</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.090880978461257</v>
+        <v>0.4303657638029676</v>
       </c>
       <c r="C9">
-        <v>0.129428969884458</v>
+        <v>0.03836005946547516</v>
       </c>
       <c r="D9">
-        <v>0.162473121815097</v>
+        <v>0.1655778204644776</v>
       </c>
       <c r="E9">
-        <v>0.1163427699943718</v>
+        <v>0.1594851904314964</v>
       </c>
       <c r="F9">
-        <v>0.9709011541343102</v>
+        <v>1.72558015008282</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.118101086406007</v>
+        <v>0.1942527371958462</v>
       </c>
       <c r="K9">
-        <v>1.102127788478072</v>
+        <v>0.3856725126036906</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.3909439293608656</v>
+        <v>0.2346683482246092</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.316833360911659</v>
+        <v>4.35847440088844</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.298875456236544</v>
+        <v>0.49017827233709</v>
       </c>
       <c r="C10">
-        <v>0.1490521882266762</v>
+        <v>0.04467825869865294</v>
       </c>
       <c r="D10">
-        <v>0.1898275884541789</v>
+        <v>0.1720609437847571</v>
       </c>
       <c r="E10">
-        <v>0.1316001782700624</v>
+        <v>0.1622287232872139</v>
       </c>
       <c r="F10">
-        <v>1.027407978008554</v>
+        <v>1.723426786165831</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1288614075407608</v>
+        <v>0.1952510818985331</v>
       </c>
       <c r="K10">
-        <v>1.309165692426234</v>
+        <v>0.4466563364004799</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.4643629522938824</v>
+        <v>0.2541097358512587</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.394811049648894</v>
+        <v>4.335110384855483</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.394148778495094</v>
+        <v>0.5174633051150295</v>
       </c>
       <c r="C11">
-        <v>0.1580041787697155</v>
+        <v>0.04753930817706475</v>
       </c>
       <c r="D11">
-        <v>0.202420742794132</v>
+        <v>0.1750720700491257</v>
       </c>
       <c r="E11">
-        <v>0.1387122390212205</v>
+        <v>0.1635467263090931</v>
       </c>
       <c r="F11">
-        <v>1.055355400702226</v>
+        <v>1.723311738136687</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1339891142050504</v>
+        <v>0.1957967994368843</v>
       </c>
       <c r="K11">
-        <v>1.403886892025554</v>
+        <v>0.4744185936270071</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.4980969978161056</v>
+        <v>0.2630384031907553</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.436220511873955</v>
+        <v>4.326714858245595</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.430338211223358</v>
+        <v>0.5278059967516811</v>
       </c>
       <c r="C12">
-        <v>0.1613990412558479</v>
+        <v>0.04862078185092855</v>
       </c>
       <c r="D12">
-        <v>0.2072134006787678</v>
+        <v>0.1762211348655001</v>
       </c>
       <c r="E12">
-        <v>0.1414322984302423</v>
+        <v>0.1640558447367546</v>
       </c>
       <c r="F12">
-        <v>1.066285275893051</v>
+        <v>1.723392402451523</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1359670903553365</v>
+        <v>0.1960165987542482</v>
       </c>
       <c r="K12">
-        <v>1.439849491001894</v>
+        <v>0.4849339962837007</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.5109265153260694</v>
+        <v>0.2664315005847158</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.452817994927472</v>
+        <v>4.323856747531778</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.422538922608368</v>
+        <v>0.5255780564370127</v>
       </c>
       <c r="C13">
-        <v>0.1606676553693802</v>
+        <v>0.04838795446892163</v>
       </c>
       <c r="D13">
-        <v>0.2061801127352254</v>
+        <v>0.1759732724673597</v>
       </c>
       <c r="E13">
-        <v>0.140845252430978</v>
+        <v>0.1639457520059757</v>
       </c>
       <c r="F13">
-        <v>1.063915501163592</v>
+        <v>1.723369506162172</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1355394407615549</v>
+        <v>0.1959686765854372</v>
       </c>
       <c r="K13">
-        <v>1.432099860214606</v>
+        <v>0.4826692156169656</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.5081608795853683</v>
+        <v>0.2657002051737649</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.449201612718099</v>
+        <v>4.324458012003447</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.397123767168551</v>
+        <v>0.518313998112518</v>
       </c>
       <c r="C14">
-        <v>0.1582833693425982</v>
+        <v>0.04762832093709335</v>
       </c>
       <c r="D14">
-        <v>0.2028145441684472</v>
+        <v>0.1751664281058822</v>
       </c>
       <c r="E14">
-        <v>0.1389354679664194</v>
+        <v>0.1635884112180896</v>
       </c>
       <c r="F14">
-        <v>1.056247512031561</v>
+        <v>1.723315885177399</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1341511010293104</v>
+        <v>0.1958146190644285</v>
       </c>
       <c r="K14">
-        <v>1.406843580343661</v>
+        <v>0.4752836561012543</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.499151342728787</v>
+        <v>0.2633173157468391</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.437567249880487</v>
+        <v>4.326473284535183</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.381571303417331</v>
+        <v>0.5138658979623472</v>
       </c>
       <c r="C15">
-        <v>0.156823608850388</v>
+        <v>0.04716276870189517</v>
       </c>
       <c r="D15">
-        <v>0.2007562236181712</v>
+        <v>0.1746733582301943</v>
       </c>
       <c r="E15">
-        <v>0.1377692388108862</v>
+        <v>0.1633708332774866</v>
       </c>
       <c r="F15">
-        <v>1.051596563045806</v>
+        <v>1.723299216647717</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1333055054234933</v>
+        <v>0.1957219660662233</v>
       </c>
       <c r="K15">
-        <v>1.391386091459623</v>
+        <v>0.4707600904852995</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.4936401403462298</v>
+        <v>0.261859285442533</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.430562181755192</v>
+        <v>4.327749513144852</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.29266375572675</v>
+        <v>0.488396619122625</v>
       </c>
       <c r="C16">
-        <v>0.1484677722786643</v>
+        <v>0.04449101340864559</v>
       </c>
       <c r="D16">
-        <v>0.1890078061273215</v>
+        <v>0.1718653981255329</v>
       </c>
       <c r="E16">
-        <v>0.1311390243382746</v>
+        <v>0.1621439929404929</v>
       </c>
       <c r="F16">
-        <v>1.025628710570544</v>
+        <v>1.723451693864021</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1285312147706748</v>
+        <v>0.1952172588766174</v>
       </c>
       <c r="K16">
-        <v>1.302987641581296</v>
+        <v>0.4448423758107367</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.462165683324919</v>
+        <v>0.2535279157281565</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.392229584671639</v>
+        <v>4.33570398419306</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.238301621430566</v>
+        <v>0.4727911635941666</v>
       </c>
       <c r="C17">
-        <v>0.1433491068307262</v>
+        <v>0.0428485753280512</v>
       </c>
       <c r="D17">
-        <v>0.1818404778565821</v>
+        <v>0.1701586026833439</v>
       </c>
       <c r="E17">
-        <v>0.1271170383561007</v>
+        <v>0.1614092548985511</v>
       </c>
       <c r="F17">
-        <v>1.010289351966136</v>
+        <v>1.723766597907783</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1256638599709419</v>
+        <v>0.1949310759260214</v>
       </c>
       <c r="K17">
-        <v>1.24890721005994</v>
+        <v>0.4289475709114186</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.4429477989791124</v>
+        <v>0.24843845673999</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.37027772626007</v>
+        <v>4.341155694519927</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.207094562067937</v>
+        <v>0.4638225031433478</v>
       </c>
       <c r="C18">
-        <v>0.1404072821130171</v>
+        <v>0.04190265572026419</v>
       </c>
       <c r="D18">
-        <v>0.1777319350585174</v>
+        <v>0.1691827326041135</v>
       </c>
       <c r="E18">
-        <v>0.124819687880759</v>
+        <v>0.1609932400281764</v>
       </c>
       <c r="F18">
-        <v>1.001676045460741</v>
+        <v>1.724029101111853</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1240363680203629</v>
+        <v>0.1947750907877079</v>
       </c>
       <c r="K18">
-        <v>1.217851227210474</v>
+        <v>0.4198072501794741</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.4319253013119209</v>
+        <v>0.245519115555652</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.358206394647254</v>
+        <v>4.344501543058954</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.196538292469825</v>
+        <v>0.4607871177723553</v>
       </c>
       <c r="C19">
-        <v>0.1394115872905957</v>
+        <v>0.0415821735764581</v>
       </c>
       <c r="D19">
-        <v>0.1763431722312987</v>
+        <v>0.168853324343246</v>
       </c>
       <c r="E19">
-        <v>0.1240445252236739</v>
+        <v>0.1608535170959833</v>
       </c>
       <c r="F19">
-        <v>0.9987949928441822</v>
+        <v>1.724131959725071</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1234889794892524</v>
+        <v>0.1947237579266954</v>
       </c>
       <c r="K19">
-        <v>1.207344256432009</v>
+        <v>0.4167128448164021</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.428198414765582</v>
+        <v>0.2445320527966572</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.354212692972823</v>
+        <v>4.345670486379646</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.244082170623642</v>
+        <v>0.4744516509295522</v>
       </c>
       <c r="C20">
-        <v>0.1438937507677451</v>
+        <v>0.04302354364548933</v>
       </c>
       <c r="D20">
-        <v>0.1826019951273707</v>
+        <v>0.1703396908594925</v>
       </c>
       <c r="E20">
-        <v>0.1275435151118778</v>
+        <v>0.1614867875779602</v>
       </c>
       <c r="F20">
-        <v>1.011900400754072</v>
+        <v>1.723724654072711</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1259668260179794</v>
+        <v>0.1949606486193289</v>
       </c>
       <c r="K20">
-        <v>1.25465891159314</v>
+        <v>0.4306394017467881</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.4449903059856979</v>
+        <v>0.2489794135828944</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.372556678561068</v>
+        <v>4.340553598888448</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.404585644831599</v>
+        <v>0.5204473486343488</v>
       </c>
       <c r="C21">
-        <v>0.1589835470174847</v>
+        <v>0.04785149690884793</v>
       </c>
       <c r="D21">
-        <v>0.2038024244502168</v>
+        <v>0.1754031792683861</v>
       </c>
       <c r="E21">
-        <v>0.1394956699824732</v>
+        <v>0.1636930992705459</v>
       </c>
       <c r="F21">
-        <v>1.058490171528817</v>
+        <v>1.72332826408045</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1345578840209143</v>
+        <v>0.1958595128142946</v>
       </c>
       <c r="K21">
-        <v>1.414259281997175</v>
+        <v>0.4774529117318025</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.5017961070152381</v>
+        <v>0.2640169036979714</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.440959143592465</v>
+        <v>4.325872635714461</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.510142750541803</v>
+        <v>0.5505688328302369</v>
       </c>
       <c r="C22">
-        <v>0.1688750671709585</v>
+        <v>0.05099548880556881</v>
       </c>
       <c r="D22">
-        <v>0.2177987019579319</v>
+        <v>0.1787638113196408</v>
       </c>
       <c r="E22">
-        <v>0.147464900401161</v>
+        <v>0.1651934328515168</v>
       </c>
       <c r="F22">
-        <v>1.090973251040467</v>
+        <v>1.723793269801277</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1403852054838808</v>
+        <v>0.1965235998342649</v>
       </c>
       <c r="K22">
-        <v>1.519122189961763</v>
+        <v>0.5080622301991582</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.5392471330533297</v>
+        <v>0.273914666431871</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.491039410983319</v>
+        <v>4.318149356316411</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.453738623799325</v>
+        <v>0.5344870431335096</v>
       </c>
       <c r="C23">
-        <v>0.1635926217285828</v>
+        <v>0.04931853833248567</v>
       </c>
       <c r="D23">
-        <v>0.2103149217571456</v>
+        <v>0.1769655091254805</v>
       </c>
       <c r="E23">
-        <v>0.1431963542266317</v>
+        <v>0.1643873480144968</v>
       </c>
       <c r="F23">
-        <v>1.073441794855626</v>
+        <v>1.723478864147651</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1372546429440149</v>
+        <v>0.1961621590051053</v>
       </c>
       <c r="K23">
-        <v>1.463098403566391</v>
+        <v>0.491724344973818</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.519226634608323</v>
+        <v>0.2686257057968433</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.463796797442882</v>
+        <v>4.322100164057559</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.241468640920374</v>
+        <v>0.4737009348388597</v>
       </c>
       <c r="C24">
-        <v>0.1436475143372178</v>
+        <v>0.04294444563628019</v>
       </c>
       <c r="D24">
-        <v>0.1822576758174677</v>
+        <v>0.170257804102377</v>
       </c>
       <c r="E24">
-        <v>0.1273506585938122</v>
+        <v>0.1614517151286776</v>
       </c>
       <c r="F24">
-        <v>1.011171407347661</v>
+        <v>1.723743363127326</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1258297898991572</v>
+        <v>0.1949472521858837</v>
       </c>
       <c r="K24">
-        <v>1.252058457729703</v>
+        <v>0.4298745317985038</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.4440668077286176</v>
+        <v>0.2487348262474782</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.371524658651794</v>
+        <v>4.340825147233375</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.01475818148873</v>
+        <v>0.4084097131298279</v>
       </c>
       <c r="C25">
-        <v>0.1222168350004722</v>
+        <v>0.03602203066505183</v>
       </c>
       <c r="D25">
-        <v>0.1525169184565414</v>
+        <v>0.1632458097342351</v>
       </c>
       <c r="E25">
-        <v>0.1108620130311415</v>
+        <v>0.158537141183686</v>
       </c>
       <c r="F25">
-        <v>0.9519272197860289</v>
+        <v>1.727140232460371</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1143276302004921</v>
+        <v>0.1939663935487275</v>
       </c>
       <c r="K25">
-        <v>1.026259537965444</v>
+        <v>0.3632358490208105</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.3641604232539848</v>
+        <v>0.2275850375963913</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.292987615649167</v>
+        <v>4.369058140513857</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_75/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_75/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.3605800351893436</v>
+        <v>0.849157700056935</v>
       </c>
       <c r="C2">
-        <v>0.03088557933001823</v>
+        <v>0.1064624986043299</v>
       </c>
       <c r="D2">
-        <v>0.1582768291396235</v>
+        <v>0.1309827186465782</v>
       </c>
       <c r="E2">
-        <v>0.1566086668042352</v>
+        <v>0.09916234305933358</v>
       </c>
       <c r="F2">
-        <v>1.732319223695484</v>
+        <v>0.9142894626320412</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1935279873024527</v>
+        <v>0.1064703413011188</v>
       </c>
       <c r="K2">
-        <v>0.3142421109734244</v>
+        <v>0.8610059644736907</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.2122778647614751</v>
+        <v>0.3060814921577588</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>4.396756074374139</v>
+        <v>2.25108496520005</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.3283216481623867</v>
+        <v>0.7374771449857178</v>
       </c>
       <c r="C3">
-        <v>0.02738043922929023</v>
+        <v>0.09578042122028307</v>
       </c>
       <c r="D3">
-        <v>0.1550313151745257</v>
+        <v>0.1165763643675035</v>
       </c>
       <c r="E3">
-        <v>0.1554378733549875</v>
+        <v>0.09147267655587399</v>
       </c>
       <c r="F3">
-        <v>1.737500715248814</v>
+        <v>0.8921348156890616</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1934081094813109</v>
+        <v>0.1014837519117009</v>
       </c>
       <c r="K3">
-        <v>0.2810876666782747</v>
+        <v>0.7493738348169359</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.2020710694219332</v>
+        <v>0.2670804994962701</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>4.41983796681879</v>
+        <v>2.231648563441382</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.3085938214295254</v>
+        <v>0.6690917088972128</v>
       </c>
       <c r="C4">
-        <v>0.02521660268811843</v>
+        <v>0.08921286975683529</v>
       </c>
       <c r="D4">
-        <v>0.1530991578740384</v>
+        <v>0.1078114225813636</v>
       </c>
       <c r="E4">
-        <v>0.154786353056064</v>
+        <v>0.08685835383308316</v>
       </c>
       <c r="F4">
-        <v>1.741507268733137</v>
+        <v>0.8800693081137467</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1934220207013482</v>
+        <v>0.09857566564734555</v>
       </c>
       <c r="K4">
-        <v>0.2607568303609611</v>
+        <v>0.6809309922009135</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.195887129392144</v>
+        <v>0.2432773944165518</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>4.43613697541997</v>
+        <v>2.223837094502585</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.3005748792305099</v>
+        <v>0.6412598567075634</v>
       </c>
       <c r="C5">
-        <v>0.02433193968214198</v>
+        <v>0.08653354393706536</v>
       </c>
       <c r="D5">
-        <v>0.1523271114381117</v>
+        <v>0.1042583021691286</v>
       </c>
       <c r="E5">
-        <v>0.1545378302330285</v>
+        <v>0.08500343119869669</v>
       </c>
       <c r="F5">
-        <v>1.743347577505176</v>
+        <v>0.8755228981811243</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.193449718883457</v>
+        <v>0.09742741205135275</v>
       </c>
       <c r="K5">
-        <v>0.2524788782477003</v>
+        <v>0.6530545434369941</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.1933881755924034</v>
+        <v>0.2336090018866059</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>4.443313832954047</v>
+        <v>2.221648775190062</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2992445799039274</v>
+        <v>0.6366402431732183</v>
       </c>
       <c r="C6">
-        <v>0.02418486952095122</v>
+        <v>0.08608844054937492</v>
       </c>
       <c r="D6">
-        <v>0.1521998417023838</v>
+        <v>0.1036693911272835</v>
       </c>
       <c r="E6">
-        <v>0.1544975897796128</v>
+        <v>0.08469691757454711</v>
       </c>
       <c r="F6">
-        <v>1.743665702032821</v>
+        <v>0.8747898804963583</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1934556493204056</v>
+        <v>0.09723891705217369</v>
       </c>
       <c r="K6">
-        <v>0.2511047686835752</v>
+        <v>0.6484262644370489</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.1929745024975134</v>
+        <v>0.2320053506272721</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>4.444537853624993</v>
+        <v>2.221344315521847</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.3084855923437999</v>
+        <v>0.6687162283577379</v>
       </c>
       <c r="C7">
-        <v>0.02520468341437265</v>
+        <v>0.08917674858317071</v>
       </c>
       <c r="D7">
-        <v>0.1530886836295764</v>
+        <v>0.107763430448955</v>
       </c>
       <c r="E7">
-        <v>0.1547829325965857</v>
+        <v>0.0868332365694755</v>
       </c>
       <c r="F7">
-        <v>1.741531247024788</v>
+        <v>0.880006514863112</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1934223050232546</v>
+        <v>0.09856003319232087</v>
       </c>
       <c r="K7">
-        <v>0.260645161934363</v>
+        <v>0.680554995143865</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.1958533421725619</v>
+        <v>0.2431468811304391</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>4.436231599172316</v>
+        <v>2.223803607331035</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.3494412181356097</v>
+        <v>0.8106044743181258</v>
       </c>
       <c r="C8">
-        <v>0.02967945817366058</v>
+        <v>0.1027806224739152</v>
       </c>
       <c r="D8">
-        <v>0.1571452475170787</v>
+        <v>0.1259976775766063</v>
       </c>
       <c r="E8">
-        <v>0.1561910222056433</v>
+        <v>0.09648777859259283</v>
       </c>
       <c r="F8">
-        <v>1.733934627502158</v>
+        <v>0.9063213920408018</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.193468502326283</v>
+        <v>0.1047179312534254</v>
       </c>
       <c r="K8">
-        <v>0.3028053005196796</v>
+        <v>0.8224879546301054</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.2087414135881502</v>
+        <v>0.2926013005039536</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>4.404273395979743</v>
+        <v>2.243501883680381</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.4303657638029676</v>
+        <v>1.090880978461172</v>
       </c>
       <c r="C9">
-        <v>0.03836005946547516</v>
+        <v>0.1294289698847848</v>
       </c>
       <c r="D9">
-        <v>0.1655778204644776</v>
+        <v>0.1624731218153812</v>
       </c>
       <c r="E9">
-        <v>0.1594851904314964</v>
+        <v>0.1163427699943647</v>
       </c>
       <c r="F9">
-        <v>1.72558015008282</v>
+        <v>0.9709011541343102</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1942527371958462</v>
+        <v>0.1181010864059644</v>
       </c>
       <c r="K9">
-        <v>0.3856725126036906</v>
+        <v>1.102127788478072</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.2346683482246092</v>
+        <v>0.3909439293608656</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>4.35847440088844</v>
+        <v>2.31683336091163</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.49017827233709</v>
+        <v>1.298875456236544</v>
       </c>
       <c r="C10">
-        <v>0.04467825869865294</v>
+        <v>0.1490521882265909</v>
       </c>
       <c r="D10">
-        <v>0.1720609437847571</v>
+        <v>0.1898275884542926</v>
       </c>
       <c r="E10">
-        <v>0.1622287232872139</v>
+        <v>0.131600178270066</v>
       </c>
       <c r="F10">
-        <v>1.723426786165831</v>
+        <v>1.027407978008512</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1952510818985331</v>
+        <v>0.1288614075407679</v>
       </c>
       <c r="K10">
-        <v>0.4466563364004799</v>
+        <v>1.309165692426177</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.2541097358512587</v>
+        <v>0.4643629522939037</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>4.335110384855483</v>
+        <v>2.394811049648808</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.5174633051150295</v>
+        <v>1.394148778494895</v>
       </c>
       <c r="C11">
-        <v>0.04753930817706475</v>
+        <v>0.1580041787698008</v>
       </c>
       <c r="D11">
-        <v>0.1750720700491257</v>
+        <v>0.2024207427939473</v>
       </c>
       <c r="E11">
-        <v>0.1635467263090931</v>
+        <v>0.1387122390211815</v>
       </c>
       <c r="F11">
-        <v>1.723311738136687</v>
+        <v>1.055355400702211</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1957967994368843</v>
+        <v>0.1339891142049936</v>
       </c>
       <c r="K11">
-        <v>0.4744185936270071</v>
+        <v>1.403886892025582</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.2630384031907553</v>
+        <v>0.4980969978161127</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>4.326714858245595</v>
+        <v>2.436220511873927</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.5278059967516811</v>
+        <v>1.430338211223187</v>
       </c>
       <c r="C12">
-        <v>0.04862078185092855</v>
+        <v>0.1613990412556205</v>
       </c>
       <c r="D12">
-        <v>0.1762211348655001</v>
+        <v>0.2072134006786968</v>
       </c>
       <c r="E12">
-        <v>0.1640558447367546</v>
+        <v>0.1414322984302636</v>
       </c>
       <c r="F12">
-        <v>1.723392402451523</v>
+        <v>1.066285275893023</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1960165987542482</v>
+        <v>0.1359670903554075</v>
       </c>
       <c r="K12">
-        <v>0.4849339962837007</v>
+        <v>1.439849491001951</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.2664315005847158</v>
+        <v>0.5109265153260623</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>4.323856747531778</v>
+        <v>2.452817994927358</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.5255780564370127</v>
+        <v>1.422538922608396</v>
       </c>
       <c r="C13">
-        <v>0.04838795446892163</v>
+        <v>0.1606676553694939</v>
       </c>
       <c r="D13">
-        <v>0.1759732724673597</v>
+        <v>0.2061801127350549</v>
       </c>
       <c r="E13">
-        <v>0.1639457520059757</v>
+        <v>0.1408452524309602</v>
       </c>
       <c r="F13">
-        <v>1.723369506162172</v>
+        <v>1.063915501163592</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1959686765854372</v>
+        <v>0.1355394407614909</v>
       </c>
       <c r="K13">
-        <v>0.4826692156169656</v>
+        <v>1.432099860214606</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.2657002051737649</v>
+        <v>0.5081608795853683</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>4.324458012003447</v>
+        <v>2.44920161271807</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.518313998112518</v>
+        <v>1.397123767168694</v>
       </c>
       <c r="C14">
-        <v>0.04762832093709335</v>
+        <v>0.1582833693428256</v>
       </c>
       <c r="D14">
-        <v>0.1751664281058822</v>
+        <v>0.2028145441685609</v>
       </c>
       <c r="E14">
-        <v>0.1635884112180896</v>
+        <v>0.1389354679664194</v>
       </c>
       <c r="F14">
-        <v>1.723315885177399</v>
+        <v>1.056247512031561</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1958146190644285</v>
+        <v>0.1341511010293175</v>
       </c>
       <c r="K14">
-        <v>0.4752836561012543</v>
+        <v>1.406843580343661</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.2633173157468391</v>
+        <v>0.4991513427287799</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>4.326473284535183</v>
+        <v>2.437567249880516</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.5138658979623472</v>
+        <v>1.381571303417417</v>
       </c>
       <c r="C15">
-        <v>0.04716276870189517</v>
+        <v>0.1568236088509565</v>
       </c>
       <c r="D15">
-        <v>0.1746733582301943</v>
+        <v>0.2007562236181002</v>
       </c>
       <c r="E15">
-        <v>0.1633708332774866</v>
+        <v>0.1377692388108862</v>
       </c>
       <c r="F15">
-        <v>1.723299216647717</v>
+        <v>1.051596563045806</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1957219660662233</v>
+        <v>0.1333055054234151</v>
       </c>
       <c r="K15">
-        <v>0.4707600904852995</v>
+        <v>1.391386091459566</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.261859285442533</v>
+        <v>0.4936401403462298</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>4.327749513144852</v>
+        <v>2.430562181755135</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.488396619122625</v>
+        <v>1.292663755726892</v>
       </c>
       <c r="C16">
-        <v>0.04449101340864559</v>
+        <v>0.1484677722791332</v>
       </c>
       <c r="D16">
-        <v>0.1718653981255329</v>
+        <v>0.1890078061273925</v>
       </c>
       <c r="E16">
-        <v>0.1621439929404929</v>
+        <v>0.1311390243382711</v>
       </c>
       <c r="F16">
-        <v>1.723451693864021</v>
+        <v>1.025628710570558</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1952172588766174</v>
+        <v>0.1285312147706748</v>
       </c>
       <c r="K16">
-        <v>0.4448423758107367</v>
+        <v>1.302987641581296</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.2535279157281565</v>
+        <v>0.462165683324919</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>4.33570398419306</v>
+        <v>2.392229584671583</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.4727911635941666</v>
+        <v>1.238301621430679</v>
       </c>
       <c r="C17">
-        <v>0.0428485753280512</v>
+        <v>0.1433491068309394</v>
       </c>
       <c r="D17">
-        <v>0.1701586026833439</v>
+        <v>0.1818404778567526</v>
       </c>
       <c r="E17">
-        <v>0.1614092548985511</v>
+        <v>0.1271170383561326</v>
       </c>
       <c r="F17">
-        <v>1.723766597907783</v>
+        <v>1.010289351966108</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1949310759260214</v>
+        <v>0.1256638599709987</v>
       </c>
       <c r="K17">
-        <v>0.4289475709114186</v>
+        <v>1.24890721005994</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.24843845673999</v>
+        <v>0.4429477989791195</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>4.341155694519927</v>
+        <v>2.370277726260042</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.4638225031433478</v>
+        <v>1.207094562067937</v>
       </c>
       <c r="C18">
-        <v>0.04190265572026419</v>
+        <v>0.140407282113145</v>
       </c>
       <c r="D18">
-        <v>0.1691827326041135</v>
+        <v>0.1777319350586168</v>
       </c>
       <c r="E18">
-        <v>0.1609932400281764</v>
+        <v>0.1248196878807555</v>
       </c>
       <c r="F18">
-        <v>1.724029101111853</v>
+        <v>1.001676045460755</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1947750907877079</v>
+        <v>0.1240363680203558</v>
       </c>
       <c r="K18">
-        <v>0.4198072501794741</v>
+        <v>1.217851227210474</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.245519115555652</v>
+        <v>0.4319253013119351</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>4.344501543058954</v>
+        <v>2.358206394647226</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.4607871177723553</v>
+        <v>1.196538292469626</v>
       </c>
       <c r="C19">
-        <v>0.0415821735764581</v>
+        <v>0.1394115872903541</v>
       </c>
       <c r="D19">
-        <v>0.168853324343246</v>
+        <v>0.1763431722315119</v>
       </c>
       <c r="E19">
-        <v>0.1608535170959833</v>
+        <v>0.1240445252236775</v>
       </c>
       <c r="F19">
-        <v>1.724131959725071</v>
+        <v>0.9987949928441822</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1947237579266954</v>
+        <v>0.1234889794892808</v>
       </c>
       <c r="K19">
-        <v>0.4167128448164021</v>
+        <v>1.207344256432123</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.2445320527966572</v>
+        <v>0.4281984147655677</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>4.345670486379646</v>
+        <v>2.354212692972908</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.4744516509295522</v>
+        <v>1.244082170623471</v>
       </c>
       <c r="C20">
-        <v>0.04302354364548933</v>
+        <v>0.1438937507678588</v>
       </c>
       <c r="D20">
-        <v>0.1703396908594925</v>
+        <v>0.1826019951275413</v>
       </c>
       <c r="E20">
-        <v>0.1614867875779602</v>
+        <v>0.1275435151118778</v>
       </c>
       <c r="F20">
-        <v>1.723724654072711</v>
+        <v>1.011900400754044</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1949606486193289</v>
+        <v>0.1259668260179652</v>
       </c>
       <c r="K20">
-        <v>0.4306394017467881</v>
+        <v>1.254658911593111</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.2489794135828944</v>
+        <v>0.4449903059856908</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>4.340553598888448</v>
+        <v>2.37255667856104</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.5204473486343488</v>
+        <v>1.404585644831542</v>
       </c>
       <c r="C21">
-        <v>0.04785149690884793</v>
+        <v>0.1589835470171437</v>
       </c>
       <c r="D21">
-        <v>0.1754031792683861</v>
+        <v>0.2038024244504584</v>
       </c>
       <c r="E21">
-        <v>0.1636930992705459</v>
+        <v>0.1394956699824661</v>
       </c>
       <c r="F21">
-        <v>1.72332826408045</v>
+        <v>1.058490171528817</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1958595128142946</v>
+        <v>0.1345578840210422</v>
       </c>
       <c r="K21">
-        <v>0.4774529117318025</v>
+        <v>1.414259281997118</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.2640169036979714</v>
+        <v>0.5017961070152381</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>4.325872635714461</v>
+        <v>2.440959143592465</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.5505688328302369</v>
+        <v>1.510142750541775</v>
       </c>
       <c r="C22">
-        <v>0.05099548880556881</v>
+        <v>0.1688750671707311</v>
       </c>
       <c r="D22">
-        <v>0.1787638113196408</v>
+        <v>0.2177987019577472</v>
       </c>
       <c r="E22">
-        <v>0.1651934328515168</v>
+        <v>0.1474649004011468</v>
       </c>
       <c r="F22">
-        <v>1.723793269801277</v>
+        <v>1.09097325104041</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1965235998342649</v>
+        <v>0.1403852054839234</v>
       </c>
       <c r="K22">
-        <v>0.5080622301991582</v>
+        <v>1.519122189961678</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.273914666431871</v>
+        <v>0.5392471330533226</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>4.318149356316411</v>
+        <v>2.491039410983234</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.5344870431335096</v>
+        <v>1.453738623799325</v>
       </c>
       <c r="C23">
-        <v>0.04931853833248567</v>
+        <v>0.1635926217283412</v>
       </c>
       <c r="D23">
-        <v>0.1769655091254805</v>
+        <v>0.2103149217568756</v>
       </c>
       <c r="E23">
-        <v>0.1643873480144968</v>
+        <v>0.1431963542266246</v>
       </c>
       <c r="F23">
-        <v>1.723478864147651</v>
+        <v>1.073441794855626</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1961621590051053</v>
+        <v>0.1372546429440433</v>
       </c>
       <c r="K23">
-        <v>0.491724344973818</v>
+        <v>1.463098403566391</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.2686257057968433</v>
+        <v>0.5192266346083088</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>4.322100164057559</v>
+        <v>2.463796797442882</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.4737009348388597</v>
+        <v>1.241468640920402</v>
       </c>
       <c r="C24">
-        <v>0.04294444563628019</v>
+        <v>0.1436475143374736</v>
       </c>
       <c r="D24">
-        <v>0.170257804102377</v>
+        <v>0.1822576758174677</v>
       </c>
       <c r="E24">
-        <v>0.1614517151286776</v>
+        <v>0.1273506585938016</v>
       </c>
       <c r="F24">
-        <v>1.723743363127326</v>
+        <v>1.011171407347675</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1949472521858837</v>
+        <v>0.1258297898991785</v>
       </c>
       <c r="K24">
-        <v>0.4298745317985038</v>
+        <v>1.252058457729646</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.2487348262474782</v>
+        <v>0.4440668077286176</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>4.340825147233375</v>
+        <v>2.37152465865185</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.4084097131298279</v>
+        <v>1.014758181488759</v>
       </c>
       <c r="C25">
-        <v>0.03602203066505183</v>
+        <v>0.1222168350002448</v>
       </c>
       <c r="D25">
-        <v>0.1632458097342351</v>
+        <v>0.1525169184563708</v>
       </c>
       <c r="E25">
-        <v>0.158537141183686</v>
+        <v>0.1108620130311451</v>
       </c>
       <c r="F25">
-        <v>1.727140232460371</v>
+        <v>0.9519272197860005</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1939663935487275</v>
+        <v>0.1143276302005702</v>
       </c>
       <c r="K25">
-        <v>0.3632358490208105</v>
+        <v>1.026259537965501</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.2275850375963913</v>
+        <v>0.3641604232539919</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>4.369058140513857</v>
+        <v>2.292987615649139</v>
       </c>
     </row>
   </sheetData>
